--- a/data/kbvreport_export/faktenblatttabellen_2022-11-27.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2022-11-27.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 31.11.</t>
+    <t xml:space="preserve">Stand 2.12.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">64819092 (77,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64822106 (77,9 %)</t>
+    <t xml:space="preserve">64820292 (77,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64823166 (77,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,0 PP</t>
@@ -57,37 +57,37 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3608214 ( 4,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3608184 ( 4,3 %)</t>
+    <t xml:space="preserve">3608060 ( 4,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3608020 ( 4,3 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">61210878 (73,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61213922 (73,6 %)</t>
+    <t xml:space="preserve">61212232 (73,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61215146 (73,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">51993606 (62,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52014161 (62,5 %)</t>
+    <t xml:space="preserve">52001377 (62,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52020680 (62,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. 2. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">11348849 (13,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11623895 (14,0 %)</t>
+    <t xml:space="preserve">11426978 (13,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11684156 (14,0 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,3 PP</t>
@@ -111,492 +111,498 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">523670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442206</t>
+    <t xml:space="preserve">523893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">davon in Impfzentren und Betrieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92983 ( 17,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71845 ( 16,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">davon in ärztl. Praxen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430910 ( 82,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370787 ( 83,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundesland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfungen Praxen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt min. 1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt vollst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt Auffr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Tage-Inzidenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Tage-Inzidenz 60+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baden-Württemberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thüringen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfstoffdosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dieseWoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biontech/Pfizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141902314 (74,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142261377 (74,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfungen Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137977260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138005289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfungen Omikron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4256088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geliefert Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151611824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151643124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geliefert Omikron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9762810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10292118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31633250 (16,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31638610 (16,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31559235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31560307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63276950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63283810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12795504 ( 6,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12795508 ( 6,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geliefert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14438230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson&amp;Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3757981 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3758470 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5389875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5390070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novavax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154812 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155716 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1877290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1878660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valneva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4217 ( 0,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4548 ( 0,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahl der PCR-Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positivrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,02 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,33 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,31 PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testkapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2484510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auslastung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-Wert &amp; 7-Tage-Inzidenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproduktionszahl R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Fälle je 100.000 EW in 7 Tagen bezogen auf die jeweilige Gruppe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon Unter-4-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
   </si>
   <si>
     <t xml:space="preserve">-15,6 %</t>
   </si>
   <si>
-    <t xml:space="preserve">davon in Impfzentren und Betrieben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92760 ( 17,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71419 ( 16,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">davon in ärztl. Praxen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430910 ( 82,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">370787 ( 83,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundesland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impfungen Praxen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt min. 1x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt vollst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt Auffr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Tage-Inzidenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Tage-Inzidenz 60+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baden-Württemberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schleswig-Holstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impfstoffdosen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dieseWoche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biontech/Pfizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141793178 (74,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142176052 (74,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impfungen Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137966751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137997149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impfungen Omikron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3826427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4178903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geliefert Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151611824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151643124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geliefert Omikron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9762810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10292118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31630538 (16,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31635720 (16,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31557384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31558454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63276950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63283810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AstraZeneca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12795504 ( 6,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12795508 ( 6,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geliefert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14438230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson&amp;Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3757901 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3758363 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5389875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5390070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novavax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154750 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155536 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1877290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1878660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valneva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4185 ( 0,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4498 ( 0,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahl der PCR-Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">449327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">453178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positivrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,02 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,33 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,31 PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testkapazität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2484510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auslastung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-Wert &amp; 7-Tage-Inzidenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproduktionszahl R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Fälle je 100.000 EW in 7 Tagen bezogen auf die jeweilige Gruppe:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon Unter-4-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Davon 5-bis-14-Jährige</t>
   </si>
   <si>
@@ -645,124 +651,121 @@
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
     <t xml:space="preserve">224</t>
   </si>
   <si>
-    <t xml:space="preserve">  9,3 %</t>
+    <t xml:space="preserve">  8,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1,1 %</t>
+    <t xml:space="preserve"> 7,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">46,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2,3 %</t>
+    <t xml:space="preserve">46,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Hospitalisierungen</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11501 ( 3,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8277 ( 3,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28,0 %</t>
+    <t xml:space="preserve">KW 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8394 ( 3,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7143 ( 3,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon unter 4-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">202 ( 5,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168 ( 6,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16,8 %</t>
+    <t xml:space="preserve">169 ( 6,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 ( 6,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">80 ( 0,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 ( 0,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25,0 %</t>
+    <t xml:space="preserve">62 ( 0,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 ( 0,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">535 ( 0,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469 ( 0,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12,3 %</t>
+    <t xml:space="preserve">476 ( 0,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360 ( 0,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">1588 ( 1,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1086 ( 1,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31,6 %</t>
+    <t xml:space="preserve">1106 ( 1,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937 ( 1,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 60- bis 79-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">4187 ( 5,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2931 ( 5,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30,0 %</t>
+    <t xml:space="preserve">2965 ( 5,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2569 ( 6,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">4909 (18,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3563 (21,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27,4 %</t>
+    <t xml:space="preserve">3616 (21,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3098 (22,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -774,7 +777,7 @@
     <t xml:space="preserve">20559</t>
   </si>
   <si>
-    <t xml:space="preserve">20432</t>
+    <t xml:space="preserve">20429</t>
   </si>
   <si>
     <t xml:space="preserve">-0,6 %</t>
@@ -787,8 +790,11 @@
 4 %</t>
   </si>
   <si>
-    <t xml:space="preserve">898
+    <t xml:space="preserve">897
 4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">Freie Intensivbetten</t>
@@ -817,40 +823,43 @@
     <t xml:space="preserve">30 ( 0,0%)</t>
   </si>
   <si>
-    <t xml:space="preserve">    0,0%</t>
+    <t xml:space="preserve">31 ( 0,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3,3%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">314 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -35,7%</t>
+    <t xml:space="preserve">320 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -35,3%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">811 ( 2,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">539 ( 2,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -33,5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1155 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -33,2%</t>
+    <t xml:space="preserve">828 ( 2,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 ( 2,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -33,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1178 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">786 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -33,3%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -904,157 +913,154 @@
     <t xml:space="preserve">43,9 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1,00</t>
+    <t xml:space="preserve">1,02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird nicht erreicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,5 %</t>
   </si>
   <si>
     <t xml:space="preserve"> 8,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,94</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wird nicht erreicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.02.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.07.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.06.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.05.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,97</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.12.2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fälle gesamt</t>
@@ -1640,22 +1646,22 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -1663,22 +1669,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F2" t="n">
         <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
@@ -1686,22 +1692,22 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F3" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -1709,22 +1715,22 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F4" t="n">
         <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
@@ -1732,22 +1738,22 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D5" t="n">
         <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F5" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -1755,22 +1761,22 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D6" t="n">
         <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F6" t="n">
         <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7">
@@ -1778,22 +1784,22 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D7" t="n">
         <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F7" t="n">
         <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -1801,22 +1807,22 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D8" t="n">
         <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F8" t="n">
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9">
@@ -1824,22 +1830,22 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D9" t="n">
         <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F9" t="n">
         <v>194</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
@@ -1847,22 +1853,22 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D10" t="n">
         <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F10" t="n">
         <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
@@ -1870,22 +1876,22 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D11" t="n">
         <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F11" t="n">
         <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -1893,22 +1899,22 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D12" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F12" t="n">
         <v>257</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
@@ -1916,22 +1922,22 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="D13" t="n">
         <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F13" t="n">
         <v>179</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14">
@@ -1939,22 +1945,22 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D14" t="n">
         <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F14" t="n">
         <v>207</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
@@ -1962,22 +1968,22 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D15" t="n">
         <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F15" t="n">
         <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16">
@@ -1985,22 +1991,22 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="D16" t="n">
         <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F16" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17">
@@ -2008,22 +2014,22 @@
         <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D17" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F17" t="n">
         <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18">
@@ -2031,22 +2037,22 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D18" t="n">
         <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F18" t="n">
         <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2065,354 +2071,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2" t="n">
         <v>5547582</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F2" t="n">
         <v>118306</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H2" t="n">
         <v>1052</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" t="n">
         <v>37789817</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" t="n">
         <v>212633</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H3" t="n">
         <v>770</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C4" t="n">
         <v>5542265</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F4" t="n">
         <v>115901</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H4" t="n">
         <v>722</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C5" t="n">
         <v>5360506</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F5" t="n">
         <v>181098</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H5" t="n">
         <v>629</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C6" t="n">
         <v>8650785</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F6" t="n">
         <v>34178</v>
       </c>
       <c r="G6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H6" t="n">
         <v>407</v>
       </c>
       <c r="I6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C7" t="n">
         <v>36373165</v>
       </c>
       <c r="D7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F7" t="n">
         <v>25450</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H7" t="n">
         <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C8" t="n">
         <v>24260660</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" t="n">
         <v>157495</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H8" t="n">
         <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C9" t="n">
         <v>24224763</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F9" t="n">
         <v>159679</v>
       </c>
       <c r="G9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H9" t="n">
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C10" t="n">
         <v>13595504</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F10" t="n">
         <v>21187</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H10" t="n">
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" t="n">
         <v>6351315</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F11" t="n">
         <v>23566</v>
       </c>
       <c r="G11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H11" t="n">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2562,7 @@
         <v>203</v>
       </c>
       <c r="G2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -2576,10 +2582,10 @@
         <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -2622,7 +2628,7 @@
         <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
         <v>142</v>
@@ -2786,7 +2792,7 @@
         <v>257</v>
       </c>
       <c r="G12" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -2875,7 +2881,7 @@
         <v>103</v>
       </c>
       <c r="F16" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G16" t="n">
         <v>159</v>
@@ -2901,7 +2907,7 @@
         <v>202</v>
       </c>
       <c r="G17" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2912,13 +2918,13 @@
         <v>7004</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" t="n">
         <v>118</v>
@@ -2943,211 +2949,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3166,13 +3172,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3180,72 +3186,72 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3264,13 +3270,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3278,21 +3284,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3303,102 +3309,102 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -3409,27 +3415,27 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3448,13 +3454,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3465,97 +3471,97 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3574,13 +3580,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3588,44 +3594,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +3650,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3658,44 +3664,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -3703,18 +3709,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3722,44 +3728,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -3767,13 +3773,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
